--- a/Pull Request Here/Ratkin Faction+ - 3036302713/Ratkin Faction+ - 3036302713.xlsx
+++ b/Pull Request Here/Ratkin Faction+ - 3036302713/Ratkin Faction+ - 3036302713.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\Ratkin Faction+ - 3036302713\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07EBA12-5123-41C1-A9F6-4B863A37F1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269D9375-BB82-4594-BCC4-3B4C086D5F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="294">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -211,9 +211,6 @@
     <t>CultureDef+RatkiniaTraditionCulture_Warlord.label</t>
   </si>
   <si>
-    <t>CultureDef</t>
-  </si>
-  <si>
     <t>CultureDef+RatkiniaTraditionCulture_Warlord.description</t>
   </si>
   <si>
@@ -534,10 +531,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 가난하고 궁핍한 가정에서 태어났기 때문에, 아주 어린 나이에 가장 역할부터 배웠습니다. [PAWN_pronoun]의 평생 꿈은 매 끼니마다 따뜻한 수프를 먹는 것입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Ratkin kidnap victim</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -570,10 +563,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 다른 아이들의 돈을 빼앗는 것을 즐기는 불량한 아이였습니다. [PAWN_pronoun]는 한 기사에게 공개적으로 붙잡힌 후 점차 그런 행동을 멈추기 시작했습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Ratkin fooling around soldier</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -606,10 +595,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 전투에서 용감하게 싸우며, 수많은 전투에서 기적적으로 살아남았습니다. [PAWN_pronoun]는 많은 영예를 얻었지만, 그 영예는 [PAWN_nameDef]와 [PAWN_possessive] 가족을 먹여 살리기에는 충분하지 않습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Ratkin student soldier</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -638,14 +623,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 부름에 응하여 캠퍼스를 떠난 학도병입니다. [PAWN_pronoun]는 교실에서 편안히 앉아 공부할 수 있는 기회가 있었지만, [PAWN_possessive] 열정적이었지만 아직은 완전히 성숙하지 못하였기에 결국 모든 것을 포기하게 만들었습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>[PAWN_nameDef](은)는 전선에서 지원을 제공하는 수녀입니다. [PAWN_pronoun]는 작업 중에 전투 기술을 어느 정도 익혔지만, 부상당한 병사들을 돕는 과정에서 마주한 피비린내 나는 장면들이 [PAWN_pronoun]에게 지울 수 없는 흔적을 남겼고, 이로 인해 [PAWN_pronoun]는 여전히 폭력을 극도로 혐오하게 되었습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Ratkin_StudentSoldier.title</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -690,10 +667,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>랫킨 왕국에서 분열되어 나온 군벌 세력으로, 전쟁에 의존해 불안정한 경제를 유지하고 있습니다.\n\n전체 수입이 전적으로 군수 산업에 의존하고 있기 때문에, 이 세력은 모든 외부인에 대해 극도로 공격적인 태도를 보입니다. 전쟁이 멈춘다는 것은, 자금의 흐름이 끊긴다는 것이므로 곧 이 군벌의 멸망을 의미했습니다.\n\n랫킨 군벌의 내부 억압도 극에 달해, 거의 모든 랫킨 시민들이 생사를 넘나들고 있습니다. 매년 수많은 랫킨들이 가지고 있는 모든 것을 버리고 랫킨 왕국으로 도망치려 합니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>RatkiniaTraditionCulture_Warlord.label</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -990,10 +963,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>랫킨... 정말 귀엽고 맛있어.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Disable the tunnel commando raids by Ratkin Warlords</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1010,10 +979,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[PAWN_nameDef](은)는 아주 어린 나이에 랫킨 노예 상인들에게 납치되었습니다. 다행히도, [PAWN_pronoun]를 선택한 구매자가 비교적 자비로워서, [PAWN_pronoun]는 지금까지 무사히 성장할 수 있었습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>물렁거리는 고기 위에 왁스 같은 지방이 덮여 있어... 어떻게 삼켜야 할지 모르겠어.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1027,6 +992,46 @@
   </si>
   <si>
     <t>섭취한 케이크가 많은 에너지를 함유하고 있어, 고강도의 육체 노동을 견딜 수 있도록 도와줍니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 부름에 응하여 캠퍼스를 떠난 학도병입니다. [PAWN_pronoun]는 교실에서 편안히 앉아 공부할 수 있는 기회를 뒤로 한 채 나섰지만, 열정적이었던 [PAWN_possessive] 마음이 아직은 완전히 성숙하지 못하였기에 결국 모든 것을 포기하게 만들었습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 전선에서 의료 지원 활동을 제공하는 수녀입니다. [PAWN_pronoun]는 작업을 하면서 어느정도 전투 기술을 익혔지만, 부상당한 병사들을 돕는 과정에서 마주한 피비린내 나는 장면들이 [PAWN_pronoun]에게 지울 수 없는 기억을 새겼고, 이로 인해 [PAWN_pronoun]는 폭력을 여전히 극도로 혐오하고 있습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>랫킨 왕국에서 분열되어 나온 군벌 세력으로, 전쟁에 의존해 불안정한 경제를 유지하고 있습니다.\n\n전체 수입이 전적으로 군수 산업에 의존하고 있기 때문에, 이 세력은 모든 외부인에 대해 극도로 공격적인 태도를 보입니다. 전쟁이 멈춘다는 것은, 자금의 흐름이 끊긴다는 것이므로 곧 이 군벌의 멸망을 의미했습니다.\n\n랫킨 군벌의 내부 억압도 극에 달해, 거의 모든 랫킨 시민들이 생사를 넘나들고 있습니다. 해마다 수많은 랫킨들이 가진 모든 것을 버리고 랫킨 왕국으로 탈출하려고 합니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>랫킨... 정말 귀엽고 맛있다!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 아주 어렸을 때, 랫킨 노예 상인에게 납치되었습니다. 다행히도 [PAWN_pronoun]를 선택한 구매자가 비교적 자비로웠기에, [PAWN_pronoun]는 지금까지 무사히 성장할 수 있었습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 다른 아이들의 돈을 빼앗고 다니던 불량한 아이였습니다. 어느 날 [PAWN_pronoun]는 광장에서 한 기사에게 붙잡힌 후 점차 그런 행동을 멈추기 시작했습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 전투에서 용감하게 싸우며, 수많은 전투에서도 기적적으로 살아남았습니다. [PAWN_pronoun]는 많은 영예를 얻었지만, 그 영예는 [PAWN_nameDef]와 [PAWN_possessive] 가족을 먹여 살리기에는 충분하지 않습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[PAWN_nameDef](은)는 가난하고 궁핍한 가정에서 태어났기 때문에, 아주 어린 나이임에도 집안의 가장 역할을 해야 했습니다. [PAWN_pronoun]의 평생 꿈은 매 끼니마다 따뜻한 수프를 먹는 것입니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ideology</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patches.CultureDef</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1418,7 +1423,7 @@
   <cols>
     <col min="1" max="1" width="68.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="29.5703125" style="1" customWidth="1"/>
@@ -1454,13 +1459,13 @@
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1477,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1491,10 +1496,10 @@
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>169</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1508,10 +1513,10 @@
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1528,7 +1533,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1542,7 +1547,7 @@
         <v>19</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>288</v>
@@ -1559,10 +1564,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1579,7 +1584,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1593,10 +1598,10 @@
         <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>178</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1610,10 +1615,10 @@
         <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1630,7 +1635,7 @@
         <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1644,10 +1649,10 @@
         <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1661,10 +1666,10 @@
         <v>35</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1681,7 +1686,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1695,10 +1700,10 @@
         <v>39</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>187</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1709,13 +1714,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1732,7 +1737,7 @@
         <v>31</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1746,10 +1751,10 @@
         <v>44</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>195</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1763,10 +1768,10 @@
         <v>46</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1783,7 +1788,7 @@
         <v>49</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1797,10 +1802,10 @@
         <v>51</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>196</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1811,13 +1816,13 @@
         <v>53</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1834,7 +1839,7 @@
         <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1845,13 +1850,13 @@
         <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1862,13 +1867,13 @@
         <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1882,10 +1887,10 @@
         <v>61</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>208</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1893,773 +1898,779 @@
         <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>63</v>
+        <v>293</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>65</v>
+      <c r="D29" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="F30" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E31" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="E32" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E33" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="E35" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E36" s="1" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E38" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E39" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E43" s="1" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="E44" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="E49" s="1" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="E51" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="E57" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="E59" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="F60" s="1" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="E61" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="F61" s="1" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E62" s="1" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E64" s="1" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="E65" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="E66" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="E67" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="E68" s="1" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="E70" s="1" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="E71" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/Pull Request Here/Ratkin Faction+ - 3036302713/Ratkin Faction+ - 3036302713.xlsx
+++ b/Pull Request Here/Ratkin Faction+ - 3036302713/Ratkin Faction+ - 3036302713.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269D9375-BB82-4594-BCC4-3B4C086D5F6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39366D66-66A5-41D0-86B3-F65F2E4D9100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="293">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -1027,11 +1027,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Ideology</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Patches.CultureDef</t>
+    <t>CultureDef</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1898,13 +1894,10 @@
         <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>203</v>
@@ -1921,13 +1914,10 @@
         <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>204</v>

--- a/Pull Request Here/Ratkin Faction+ - 3036302713/Ratkin Faction+ - 3036302713.xlsx
+++ b/Pull Request Here/Ratkin Faction+ - 3036302713/Ratkin Faction+ - 3036302713.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PDSSO2\Desktop\RimworldExtractor-Standard\RIM EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39366D66-66A5-41D0-86B3-F65F2E4D9100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8122D489-79BC-4615-B390-64E93B052A3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -835,10 +835,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>래키니아의 문화입니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ofThing-&gt;the Invader</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1028,6 +1024,10 @@
   </si>
   <si>
     <t>CultureDef</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>랫킨 종족의 흔한 문화입니다.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1495,7 +1495,7 @@
         <v>165</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1546,7 +1546,7 @@
         <v>169</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1597,7 +1597,7 @@
         <v>173</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1699,7 +1699,7 @@
         <v>182</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1750,7 +1750,7 @@
         <v>185</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
@@ -1801,7 +1801,7 @@
         <v>188</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1886,7 +1886,7 @@
         <v>199</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1894,7 +1894,7 @@
         <v>62</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>202</v>
@@ -1906,7 +1906,7 @@
         <v>243</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1914,7 +1914,7 @@
         <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>64</v>
@@ -1923,7 +1923,7 @@
         <v>204</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>244</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1957,7 +1957,7 @@
         <v>206</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -1974,7 +1974,7 @@
         <v>207</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -2028,7 +2028,7 @@
         <v>212</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -2130,7 +2130,7 @@
         <v>220</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -2283,7 +2283,7 @@
         <v>233</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
@@ -2348,10 +2348,10 @@
         <v>123</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -2365,10 +2365,10 @@
         <v>125</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
@@ -2382,10 +2382,10 @@
         <v>127</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
@@ -2399,30 +2399,30 @@
         <v>129</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C58" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
@@ -2436,10 +2436,10 @@
         <v>132</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
@@ -2456,7 +2456,7 @@
         <v>135</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
@@ -2473,7 +2473,7 @@
         <v>138</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -2487,10 +2487,10 @@
         <v>140</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>264</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
@@ -2504,10 +2504,10 @@
         <v>143</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -2521,10 +2521,10 @@
         <v>146</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -2541,7 +2541,7 @@
         <v>144</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -2555,10 +2555,10 @@
         <v>150</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -2575,7 +2575,7 @@
         <v>144</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -2589,10 +2589,10 @@
         <v>154</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -2603,13 +2603,13 @@
         <v>142</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>144</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -2623,10 +2623,10 @@
         <v>157</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -2640,10 +2640,10 @@
         <v>160</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -2657,10 +2657,10 @@
         <v>162</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
